--- a/data/Florida.xlsx
+++ b/data/Florida.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Florida.xlsx
+++ b/data/Florida.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Temporal Relleno Sanitario</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1144</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149738719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Continuidad operativa Relleno Sanitario Hidronor Zona Sur</t>
+          <t>Ampliación Temporal Relleno Sanitario</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9664</v>
+        <v>1144</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/09/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148027540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149738719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Plantel Avícola Florida</t>
+          <t>Continuidad operativa Relleno Sanitario Hidronor Zona Sur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agrícola Sepúlveda Palou Ltda.</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4200</v>
+        <v>9664</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>03/09/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146824763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148027540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación Plantel Avícola Florida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Agrícola Sepúlveda Palou Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146824763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9903</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17000</v>
+        <v>6750</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embalse Fundo Santa Elvira</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Santa Elvira Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Embalse Fundo Santa Elvira</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Agrícola y Forestal Santa Elvira Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>209</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Depósito de seguridad, etapa IV, Hidronor Copiulemu S.A</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23660</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14/01/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7764184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa de Tratamiento de Residuos Hidronor Copiulemu S.A.</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27/12/2012</t>
+          <t>14/01/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7702693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7764184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo, Depósito de Seguridad Etapa IV Industrial, Hidronor Copiulemu S.A.</t>
+          <t>Depósito de seguridad, etapa IV, Hidronor Copiulemu S.A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>27/12/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7484953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7702693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,40 +1624,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Plan de Desarrollo, Depósito de Seguridad Etapa IV Industrial, Hidronor Copiulemu S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Empresa de Tratamiento de Residuos Hidronor Copiulemu S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15000</v>
+        <v>23660</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7484953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,21 +2267,21 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,40 +2344,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo Centro de Tratamiento Copiulemu</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRATAMIENTO DE RESIDUOS COPIULEMU S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17500</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN RELLENO SANITARIO COPIULEMU, ETAPA 4</t>
+          <t>Plan de Desarrollo Centro de Tratamiento Copiulemu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>EMPRESA DE TRATAMIENTO DE RESIDUOS COPIULEMU S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>715</v>
+        <v>17500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5547563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>AMPLIACIÓN RELLENO SANITARIO COPIULEMU, ETAPA 4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>264</v>
+        <v>715</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>18/04/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5547563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,40 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>330000</v>
+        <v>264</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,40 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>300</v>
+        <v>330000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental "Modificación Punto de Descarga Planta de Tratamiento de RILes Copiulemu" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental "Modificación Punto de Descarga Planta de Tratamiento de RILes Copiulemu" (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>02/12/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,21 +3851,21 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Optimización del Sistema de Tratamiento de Residuos Industriales Líquidos de Copiulemu S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1987604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Optimización del Sistema de Tratamiento de Residuos Industriales Líquidos de Copiulemu S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>09/02/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1987604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Florida (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>625</v>
+        <v>20</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/05/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1431532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Optimización del Manejo de Residuos Industriales en el Relleno Sanitario de Copiulemu S.A. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Florida (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>625</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/05/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1410449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1431532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Optimización del Manejo de Residuos Industriales en el Relleno Sanitario de Copiulemu S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1410449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Caselli e Hija Ltda.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Caselli e Hija Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>41</v>
+        <v>4000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4000</v>
+        <v>41</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE FLORIDA (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,12 +4658,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Florida</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1053990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE FLORIDA (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Ilustre Municipalidad de Florida</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1053990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Optimización del Sistema de Tratamiento de Residuos Industriales Líquidos de Copiulemu S.A. (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa de Tratamiento de Residuos Copiulemu S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1046728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Optimización del Sistema de Tratamiento de Residuos Industriales Líquidos de Copiulemu S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Empresa de Tratamiento de Residuos Copiulemu S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>05/10/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1046728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Embalse Florida (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>585</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Embalse Florida (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>585</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Centro Recreacional Municipalidad de Florida (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Florida</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=66923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Estación de Transferencia Empresa de Tratamiento de Residuos Copiulemu S.A. (e-seia)</t>
+          <t>Centro Recreacional Municipalidad de Florida (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>Ilustre Municipalidad de Florida</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>08/04/2003</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=32234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=66923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construcción de Subestación Eléctrica Sector Confluencia</t>
+          <t>Estación de Transferencia Empresa de Tratamiento de Residuos Copiulemu S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Cooperativa de Consumo de Energía Eléctrica Chillán Ltda.</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=32234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/12/2001</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Florida</t>
+          <t>Construcción de Subestación Eléctrica Sector Confluencia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Cooperativa de Consumo de Energía Eléctrica Chillán Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>11/12/2001</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Florida</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Solución Sanitaria Sector Copiulemu</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Transferencia Recuperación y Revalorización de Residuos Tratamiento y Disposición de Desechos de Origen Industrial y Domiciliarios</t>
+          <t>Solución Sanitaria Sector Copiulemu</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Hidronor Chile S.A</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>10000</v>
+        <v>340</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>19/10/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,30 +5704,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Centro de Almacenamiento y Transferencia Recuperación y Revalorización de Residuos Tratamiento y Disposición de Desechos de Origen Industrial y Domiciliarios</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Hidronor Chile S.A</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Construcción de Nuevo Colegio Municipal de Florida</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,20 +5762,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>llustre Municipalidad de Florida</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06/11/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reposición Posta de Salud Rural Roa Florida</t>
+          <t>Construcción de Nuevo Colegio Municipal de Florida</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,11 +5819,11 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>1250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/10/1998</t>
+          <t>06/11/1998</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Reposición Escuela G-443 Rahuil Florida</t>
+          <t>Reposición Posta de Salud Rural Roa Florida</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>I. Municipalidad de La Florida</t>
+          <t>llustre Municipalidad de Florida</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/11/1997</t>
+          <t>06/10/1998</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Reposición Escuela G-443 Rahuil Florida</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>I. Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4240</v>
+        <v>730</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>11/11/1997</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,43 +5944,91 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>TRANSELEC S.A...</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>4240</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>07/11/1997</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>850000</v>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Florida</t>
         </is>

--- a/data/Florida.xlsx
+++ b/data/Florida.xlsx
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F117" t="n">

--- a/data/Florida.xlsx
+++ b/data/Florida.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
